--- a/SamplingLocation/SamplingLocation_VirginSoil_2021.xlsx
+++ b/SamplingLocation/SamplingLocation_VirginSoil_2021.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\Desktop\NonAgriculturalSoils\SamplingLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA8F6F-DB6C-4AB7-8CB5-5DA36190D152}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B099212-24B3-4A68-A8EA-A66418591B27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Source</t>
   </si>
@@ -126,27 +126,65 @@
     <t>long</t>
   </si>
   <si>
-    <t>Doube cropped peas/sweetcorn in 2020 followed by potato in 2021. Field was sagebrush prior to that</t>
-  </si>
-  <si>
     <t>Grown pototo over years and will be planted potato in 2022</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Columbia Basin</t>
+  </si>
+  <si>
+    <t>Non-virgin field</t>
+  </si>
+  <si>
+    <t>Double cropped peas/sweetcorn in 2020 followed by potato in 2021. Field was sagebrush prior to that</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>47° 2'43.55"N</t>
+  </si>
+  <si>
+    <t>119°36'34.30"W</t>
+  </si>
+  <si>
+    <t>out of sage brush within past couple years</t>
+  </si>
+  <si>
+    <t>Wes Boorman</t>
+  </si>
+  <si>
+    <t>509-398-1613</t>
+  </si>
+  <si>
+    <t>will be planted by 4/16</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>47° 2'23.69"N</t>
+  </si>
+  <si>
+    <t>119°36'14.49"W</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>509-398-1614</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF323130"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,9 +210,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,241 +491,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55426644-AEF8-4EF6-95BB-3778244A80AB}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A355BBE-4289-4ECE-9E38-5B2C73F1EF8A}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>1201</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2021</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>46.283706000000002</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-118.674581</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
         <v>1209</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2021</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>46.281286000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-118.68476099999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
         <v>1210</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2021</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>46.271836</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-118.68444700000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
         <v>106</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2021</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5">
         <v>47.084598</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5">
         <v>-119.808285</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2021</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>47.076717000000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-119.802953</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>2021</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7">
+        <v>47.045431000000001</v>
+      </c>
+      <c r="M7">
+        <v>-119.609527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>2021</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>47.039912999999999</v>
+      </c>
+      <c r="M8">
+        <v>-119.60402499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
